--- a/ThrustData.xlsx
+++ b/ThrustData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Dropbox\School\EGR115\Final\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Dropbox\School\EGR115\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15441602-2952-42A2-ABDA-38F19A251866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB5ED17-5E13-4E36-9F93-7B9289486CCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1950" windowWidth="20100" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,13 +397,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -411,13 +411,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -425,13 +425,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,27 +439,27 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
